--- a/Gantt charts/GanttChart-RISEEDU.xlsx
+++ b/Gantt charts/GanttChart-RISEEDU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wael/Desktop/Pictures/Desktop/CSUEB/Fall 2025/CS401 SWE/ProjectFolder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acplivermore-my.sharepoint.com/personal/esolomon_acpcomposites_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D976D-469B-394C-8203-89BDFB25A024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC75AC6-095C-492F-B50F-E6ED0DDFD985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{063DAC58-D38B-DE48-93A7-2F5835C42777}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{063DAC58-D38B-DE48-93A7-2F5835C42777}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>Phase 1</t>
   </si>
@@ -210,6 +210,56 @@
   </si>
   <si>
     <t>Yesenia, Wail</t>
+  </si>
+  <si>
+    <t>2. Google slide presentations.
+Estimated Time of Completion 
+is 10/28/2025</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Use Case Descriptions.
+Still in progress. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Work on Class Candidates: 1, 2, 3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Work on classes 9, 10, 11
+</t>
+  </si>
+  <si>
+    <t>5. Work on Use Cases: 1, 2, 3</t>
+  </si>
+  <si>
+    <t>6. Work on ProjectDescription: Product Perspective, System
+Architecture.</t>
+  </si>
+  <si>
+    <t>7. Work on : Project Purpose and Scope</t>
+  </si>
+  <si>
+    <t>8. Work on : Review all class candidates and use cases.</t>
+  </si>
+  <si>
+    <t>9. System Architecture</t>
+  </si>
+  <si>
+    <t>Emmaneul</t>
+  </si>
+  <si>
+    <t>11. Project Schedule Update</t>
+  </si>
+  <si>
+    <t>10. Gantt Chart Update</t>
+  </si>
+  <si>
+    <t>Start of Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 2 Deliverables Due (10/29)</t>
   </si>
 </sst>
 </file>
@@ -277,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -550,6 +606,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
@@ -866,7 +937,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{563B3EDE-0C14-9B46-A850-6FD514B64079}" name="Table13" displayName="Table13" ref="A1:Q37" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{563B3EDE-0C14-9B46-A850-6FD514B64079}" name="Table13" displayName="Table13" ref="A1:Q45" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{74FFF6A7-4244-0D4A-9769-2C107312A050}" name="Project Development" dataDxfId="16"/>
     <tableColumn id="15" xr3:uid="{C4808C7A-1D1F-F84C-B2CD-4D6395957214}" name="Reported by" dataDxfId="15"/>
@@ -880,11 +951,11 @@
     <tableColumn id="9" xr3:uid="{50891556-D7AC-4F4D-BB7F-CFB476FCFD35}" name="Week 9" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{6CDBE982-A676-4D47-B159-C46C80D1137B}" name="Week 10" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{7EA5E961-D875-9546-B6C0-7FC95030BED9}" name="Week 11" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{8CECB4D0-3CFD-E347-B9E6-5FCC346FB64F}" name="Week 12" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{82A01821-1EB3-9E46-8B6C-0A836368A19E}" name="Week 13" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{1D606B68-81BB-AF48-9912-501C6DC80254}" name="Week 14" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{A367E108-B0B0-1940-8905-559761F6A913}" name="Week 15" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{31821D86-C48D-1D46-BE66-104CEAC44B5D}" name="Week 16" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{8CECB4D0-3CFD-E347-B9E6-5FCC346FB64F}" name="Week 12" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{82A01821-1EB3-9E46-8B6C-0A836368A19E}" name="Week 13" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{1D606B68-81BB-AF48-9912-501C6DC80254}" name="Week 14" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{A367E108-B0B0-1940-8905-559761F6A913}" name="Week 15" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{31821D86-C48D-1D46-BE66-104CEAC44B5D}" name="Week 16" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1207,24 +1278,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D21A22B-DC81-4545-BDBB-0305EF00C77A}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.84765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.84765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.34765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.84765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.046875" customWidth="1"/>
+    <col min="13" max="13" width="18.8984375" customWidth="1"/>
+    <col min="14" max="17" width="11.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -1324,14 +1398,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11"/>
       <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1419,7 @@
       <c r="H4" s="24"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" s="25" t="s">
         <v>42</v>
       </c>
@@ -1362,7 +1436,7 @@
       <c r="H5" s="26"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -1379,7 +1453,7 @@
       <c r="H6" s="26"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="25" t="s">
         <v>44</v>
       </c>
@@ -1396,7 +1470,7 @@
       <c r="H7" s="26"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1413,7 +1487,7 @@
       <c r="H8" s="26"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
@@ -1430,7 +1504,7 @@
       <c r="H9" s="26"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
@@ -1447,7 +1521,7 @@
       <c r="H10" s="26"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="25" t="s">
         <v>48</v>
       </c>
@@ -1464,7 +1538,7 @@
       <c r="H11" s="26"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="12" t="s">
         <v>54</v>
       </c>
@@ -1481,7 +1555,7 @@
       <c r="H12" s="26"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1497,7 +1571,7 @@
       <c r="H13" s="26"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="25" t="s">
         <v>50</v>
       </c>
@@ -1513,7 +1587,7 @@
       <c r="H14" s="26"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1529,172 +1603,409 @@
       </c>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="11"/>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="38"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="12"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="38"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A19" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="38"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+    <row r="20" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="38"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="28"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="K23" s="3"/>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+    <row r="21" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="34"/>
+    </row>
+    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="34"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="34"/>
+    </row>
+    <row r="24" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A24" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="34"/>
+    </row>
+    <row r="25" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A25" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A26" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="34"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="34"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A28" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M28" s="38"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="34"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="28"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="11"/>
+      <c r="K31" s="3"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="28"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A40" s="22"/>
+      <c r="B40" s="11"/>
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A41" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="12"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="B41" s="11"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="B42" s="12"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A45" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="12"/>
+      <c r="Q45" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1706,6 +2017,7 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{9860db96-b53f-4bd7-8137-e09357cab268}" enabled="1" method="Standard" siteId="{b78d03e6-f6a2-4cff-83be-847d1a6453f9}" contentBits="0" removed="0"/>
+  <clbl:label id="{9860db96-b53f-4bd7-8137-e09357cab268}" enabled="1" method="Standard" siteId="{b78d03e6-f6a2-4cff-83be-847d1a6453f9}" removed="0"/>
+  <clbl:label id="{fed52cc1-e6a4-4fea-99ab-e516247eb8b2}" enabled="0" method="" siteId="{fed52cc1-e6a4-4fea-99ab-e516247eb8b2}" removed="1"/>
 </clbl:labelList>
 </file>
--- a/Gantt charts/GanttChart-RISEEDU.xlsx
+++ b/Gantt charts/GanttChart-RISEEDU.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acplivermore-my.sharepoint.com/personal/esolomon_acpcomposites_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC75AC6-095C-492F-B50F-E6ED0DDFD985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{707C7E88-C540-4A2A-988C-BC23D55D900E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56DF38B-4750-47B7-B73E-7DA6ED2F15E3}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{063DAC58-D38B-DE48-93A7-2F5835C42777}"/>
+    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11055" xr2:uid="{063DAC58-D38B-DE48-93A7-2F5835C42777}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$L$31</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>Phase 1</t>
   </si>
@@ -212,54 +215,46 @@
     <t>Yesenia, Wail</t>
   </si>
   <si>
-    <t>2. Google slide presentations.
-Estimated Time of Completion 
-is 10/28/2025</t>
-  </si>
-  <si>
     <t>Emmanuel</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Use Case Descriptions.
-Still in progress. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Work on Class Candidates: 1, 2, 3. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Work on classes 9, 10, 11
-</t>
-  </si>
-  <si>
-    <t>5. Work on Use Cases: 1, 2, 3</t>
-  </si>
-  <si>
-    <t>6. Work on ProjectDescription: Product Perspective, System
-Architecture.</t>
-  </si>
-  <si>
-    <t>7. Work on : Project Purpose and Scope</t>
-  </si>
-  <si>
-    <t>8. Work on : Review all class candidates and use cases.</t>
-  </si>
-  <si>
-    <t>9. System Architecture</t>
-  </si>
-  <si>
-    <t>Emmaneul</t>
-  </si>
-  <si>
     <t>11. Project Schedule Update</t>
   </si>
   <si>
-    <t>10. Gantt Chart Update</t>
-  </si>
-  <si>
     <t>Start of Phase 2</t>
   </si>
   <si>
     <t>Phase 2 Deliverables Due (10/29)</t>
+  </si>
+  <si>
+    <t>2. Architecture Design (Client–
+Server, Modules, Data Flow)</t>
+  </si>
+  <si>
+    <t>3. Detailed Classes</t>
+  </si>
+  <si>
+    <t>4. Interface Design</t>
+  </si>
+  <si>
+    <t>5. UML Diagram Development
+ (Use Case, Class, Sequence)</t>
+  </si>
+  <si>
+    <t>1. Design Phase Initiation</t>
+  </si>
+  <si>
+    <t>6. Design Review &amp; Verification</t>
+  </si>
+  <si>
+    <t>Wail, Emmanuel, Yesenia</t>
+  </si>
+  <si>
+    <t>Yesenia, Shichang</t>
+  </si>
+  <si>
+    <t>7. Finalize &amp; Baseline 
+Design Document</t>
   </si>
 </sst>
 </file>
@@ -327,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +524,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -606,21 +607,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
@@ -936,8 +930,83 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1112520</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2053590</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0432F59B-7755-494D-A677-524DE4A4B3C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15003780" y="7139940"/>
+          <a:ext cx="941070" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{563B3EDE-0C14-9B46-A850-6FD514B64079}" name="Table13" displayName="Table13" ref="A1:Q45" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{563B3EDE-0C14-9B46-A850-6FD514B64079}" name="Table13" displayName="Table13" ref="A1:Q46" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{74FFF6A7-4244-0D4A-9769-2C107312A050}" name="Project Development" dataDxfId="16"/>
     <tableColumn id="15" xr3:uid="{C4808C7A-1D1F-F84C-B2CD-4D6395957214}" name="Reported by" dataDxfId="15"/>
@@ -951,11 +1020,11 @@
     <tableColumn id="9" xr3:uid="{50891556-D7AC-4F4D-BB7F-CFB476FCFD35}" name="Week 9" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{6CDBE982-A676-4D47-B159-C46C80D1137B}" name="Week 10" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{7EA5E961-D875-9546-B6C0-7FC95030BED9}" name="Week 11" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{8CECB4D0-3CFD-E347-B9E6-5FCC346FB64F}" name="Week 12" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{82A01821-1EB3-9E46-8B6C-0A836368A19E}" name="Week 13" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{1D606B68-81BB-AF48-9912-501C6DC80254}" name="Week 14" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{A367E108-B0B0-1940-8905-559761F6A913}" name="Week 15" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{31821D86-C48D-1D46-BE66-104CEAC44B5D}" name="Week 16" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{8CECB4D0-3CFD-E347-B9E6-5FCC346FB64F}" name="Week 12" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{82A01821-1EB3-9E46-8B6C-0A836368A19E}" name="Week 13" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{1D606B68-81BB-AF48-9912-501C6DC80254}" name="Week 14" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{A367E108-B0B0-1940-8905-559761F6A913}" name="Week 15" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{31821D86-C48D-1D46-BE66-104CEAC44B5D}" name="Week 16" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,27 +1347,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D21A22B-DC81-4545-BDBB-0305EF00C77A}">
-  <dimension ref="A1:Q45"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.84765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.84765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.34765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.84765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.046875" customWidth="1"/>
-    <col min="13" max="13" width="18.8984375" customWidth="1"/>
-    <col min="14" max="17" width="11.84765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="14" max="17" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -1351,7 +1423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -1398,14 +1470,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11"/>
       <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1491,7 @@
       <c r="H4" s="24"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>42</v>
       </c>
@@ -1436,7 +1508,7 @@
       <c r="H5" s="26"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -1453,7 +1525,7 @@
       <c r="H6" s="26"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>44</v>
       </c>
@@ -1470,7 +1542,7 @@
       <c r="H7" s="26"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1487,7 +1559,7 @@
       <c r="H8" s="26"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
@@ -1504,7 +1576,7 @@
       <c r="H9" s="26"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
@@ -1521,7 +1593,7 @@
       <c r="H10" s="26"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>48</v>
       </c>
@@ -1538,7 +1610,7 @@
       <c r="H11" s="26"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>54</v>
       </c>
@@ -1555,7 +1627,7 @@
       <c r="H12" s="26"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1643,7 @@
       <c r="H13" s="26"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>50</v>
       </c>
@@ -1587,7 +1659,7 @@
       <c r="H14" s="26"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1603,26 +1675,26 @@
       </c>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="11"/>
       <c r="I17" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="38"/>
+      <c r="M17" s="32"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>52</v>
       </c>
@@ -1632,19 +1704,19 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="38"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="32"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A19" s="32" t="s">
-        <v>60</v>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1652,298 +1724,259 @@
       <c r="H19" s="2"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="38"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="A20" s="32" t="s">
-        <v>58</v>
+    <row r="20" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="38"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="34"/>
-    </row>
-    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="34"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="L22" s="15"/>
+      <c r="M22" s="32"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="34"/>
-    </row>
-    <row r="24" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="A24" s="33" t="s">
-        <v>64</v>
+      <c r="L23" s="15"/>
+      <c r="M23" s="32"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="34"/>
-    </row>
-    <row r="25" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="L24" s="15"/>
+      <c r="M24" s="32"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="34"/>
-    </row>
-    <row r="26" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A26" s="33" t="s">
-        <v>66</v>
+      <c r="L25" s="15"/>
+      <c r="M25" s="32"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="34"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A27" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="32"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="34"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A28" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="34"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A29" s="12" t="s">
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="32"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>59</v>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="32"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="32"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="28"/>
+    <row r="30" spans="1:17" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="Q30" s="12"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="K31" s="3"/>
+      <c r="C31" s="28"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
+      <c r="K32" s="3"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="29"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A35" s="12"/>
       <c r="B35" s="12"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="K36" s="1"/>
@@ -1954,7 +1987,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="K37" s="1"/>
@@ -1965,52 +1998,65 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="28"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A39" s="7"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="28"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A40" s="22"/>
-      <c r="B40" s="11"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A41" s="27" t="s">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="28"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="11"/>
+      <c r="Q41" s="12"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="Q43" s="12"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q44" s="12"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="12"/>
+      <c r="Q46" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
